--- a/list.xlsx
+++ b/list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Row number</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Error</t>
   </si>
   <si>
-    <t>https://www.reebok.co.uk/classics-foundation-backpack-2.0/FJ7006.html</t>
+    <t>https://www.reebok.co.uk/reebok-royal-glide-rpl/CN6408.html</t>
   </si>
   <si>
     <t>olega007@gmail.com</t>
@@ -100,9 +100,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,22 +146,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,96 +233,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +607,89 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,222 +708,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="19">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1281,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="9">
-        <v>50.5</v>
+        <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
@@ -1295,17 +1295,11 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="21"/>
     </row>
@@ -1599,9 +1593,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.reebok.co.uk/classics-foundation-backpack-2.0/FJ7006.html" tooltip="https://www.reebok.co.uk/classics-foundation-backpack-2.0/FJ7006.html"/>
-    <hyperlink ref="D2" r:id="rId2" display="olega007@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="olega007@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="olega007@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
